--- a/biology/Zoologie/Catantopinae/Catantopinae.xlsx
+++ b/biology/Zoologie/Catantopinae/Catantopinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Catantopinae sont une sous-famille d'orthoptères caelifères de la famille des Acrididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File (31 mars 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File (31 mars 2010) :
 Allagini Johnston, 1956
 Allaga Karsch, 1896
 Sauracris Burr, 1900
@@ -930,7 +944,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Brunner von Wattenwyl, 1893 : Révision du système des orthoptères et description des espèces rapportées par M. Leonardo Fea de Birmanie.  Annali del Museo Civico di Storia Naturale ‘Giacomo Doria’, Genova, vol. 33, p. 1–230 (texte original).</t>
         </is>
